--- a/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Estudios-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,16 +765,16 @@
         <v>385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5370</v>
+        <v>5729</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005246619902836556</v>
+        <v>0.005246619902836557</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001062752187658779</v>
+        <v>0.001062932277528566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01484310194835645</v>
+        <v>0.01583494316121004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>2893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>826</v>
+        <v>713</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7228</v>
+        <v>7288</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004700528267808344</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001342568457163444</v>
+        <v>0.001159001838261206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0117446789989708</v>
+        <v>0.01184106563865961</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>252660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248228</v>
+        <v>248588</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>253655</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9960783977138616</v>
+        <v>0.9960783977138618</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9786029873548378</v>
+        <v>0.9800256377426408</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>359907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>356435</v>
+        <v>356076</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>361420</v>
@@ -842,10 +842,10 @@
         <v>0.9947533800971634</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9851568980516434</v>
+        <v>0.9841650568387901</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9989372478123412</v>
+        <v>0.9989370677224716</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>926</v>
@@ -854,19 +854,19 @@
         <v>612567</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>608232</v>
+        <v>608172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614634</v>
+        <v>614747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9952994717321917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9882553210010291</v>
+        <v>0.9881589343613402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986574315428366</v>
+        <v>0.998840998161739</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3728</v>
+        <v>3329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0006881654325431163</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.003889795938200676</v>
+        <v>0.003473404777222691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -979,19 +979,19 @@
         <v>4089</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1631</v>
+        <v>1830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8709</v>
+        <v>8597</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.00414862248142564</v>
+        <v>0.004148622481425639</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001654734328129775</v>
+        <v>0.001857311349401023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008836479821584278</v>
+        <v>0.008723582760000162</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1000,19 +1000,19 @@
         <v>4748</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1937</v>
+        <v>2144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10207</v>
+        <v>10422</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002442572632417845</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0009966858652463355</v>
+        <v>0.001102839132391753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005250877416495375</v>
+        <v>0.005361586201299287</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>957694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>954626</v>
+        <v>955025</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>958354</v>
@@ -1038,7 +1038,7 @@
         <v>0.9993118345674569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9961102040617995</v>
+        <v>0.9965265952227775</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>981430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>976810</v>
+        <v>976922</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>983888</v>
+        <v>983689</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9958513775185743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9911635201784156</v>
+        <v>0.9912764172399999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983452656718702</v>
+        <v>0.998142688650599</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2117</v>
@@ -1071,19 +1071,19 @@
         <v>1939125</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1933666</v>
+        <v>1933451</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1941936</v>
+        <v>1941729</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9975574273675821</v>
+        <v>0.9975574273675822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9947491225835048</v>
+        <v>0.9946384137987008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9990033141347539</v>
+        <v>0.9988971608676085</v>
       </c>
     </row>
     <row r="9">
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002023126815237526</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1217,19 +1217,19 @@
         <v>2423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>345478</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>340423</v>
+        <v>341236</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>347209</v>
@@ -1255,7 +1255,7 @@
         <v>0.9950158329466884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9804550037506803</v>
+        <v>0.9827976419971717</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>341548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>338709</v>
+        <v>338752</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>342240</v>
@@ -1276,7 +1276,7 @@
         <v>0.9979768731847625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9896818549844675</v>
+        <v>0.9898093988355525</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>687025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>682199</v>
+        <v>682057</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>688854</v>
+        <v>688863</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9964856821391329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9894863591589613</v>
+        <v>0.9892801381197615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9991382469396591</v>
+        <v>0.9991514303934914</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3385</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1116</v>
+        <v>659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8636</v>
+        <v>8548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002170823427040511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007159678967410538</v>
+        <v>0.0004228142830289597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005538780582060952</v>
+        <v>0.005482134881839971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>6679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3405</v>
+        <v>3471</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12599</v>
+        <v>12315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003953206177673758</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00201519255050735</v>
+        <v>0.002054313703286098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.00745718262043121</v>
+        <v>0.007288606407083479</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1434,19 +1434,19 @@
         <v>10064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5708</v>
+        <v>5562</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16675</v>
+        <v>17025</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003097770362503403</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001757065302724023</v>
+        <v>0.001711922371854696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005132667377748248</v>
+        <v>0.005240502296204624</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1555833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1550582</v>
+        <v>1550670</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1558102</v>
+        <v>1558559</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9978291765729596</v>
+        <v>0.9978291765729594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.994461219417939</v>
+        <v>0.9945178651181599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.999284032103259</v>
+        <v>0.9995771857169711</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2354</v>
@@ -1484,19 +1484,19 @@
         <v>1682884</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1676964</v>
+        <v>1677248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1686158</v>
+        <v>1686092</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9960467938223263</v>
+        <v>0.9960467938223262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9925428173795686</v>
+        <v>0.9927113935929164</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9979848074494926</v>
+        <v>0.9979456862967141</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3801</v>
@@ -1505,19 +1505,19 @@
         <v>3238717</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3232106</v>
+        <v>3231756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3243073</v>
+        <v>3243219</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9969022296374966</v>
+        <v>0.9969022296374964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9948673326222519</v>
+        <v>0.9947594977037952</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9982429346972761</v>
+        <v>0.9982880776281454</v>
       </c>
     </row>
     <row r="15">
